--- a/DR-2995_Testcases.xlsx
+++ b/DR-2995_Testcases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15058F4B-695B-4F24-B17D-A26F3C7B7F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A8AD86-63C2-489E-BA1F-CBF5D8904623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{93E0299F-1AF6-4BA0-86E2-3EFAD9F0DB8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="DR-2995_Testcases.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1013,7 +1013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A926958-58F7-420D-9C81-8A0943C029D9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
